--- a/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>SHWZ</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="E9" s="3">
         <v>2100</v>
       </c>
       <c r="F9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,16 +887,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -890,8 +910,8 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1078,66 +1118,72 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1145,17 +1191,20 @@
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,173 +1681,191 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>1900</v>
       </c>
       <c r="F45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G45" s="3">
         <v>800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E47" s="3">
         <v>3700</v>
       </c>
       <c r="F47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G47" s="3">
         <v>4500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5300</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -1765,13 +1873,16 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12400</v>
+        <v>17500</v>
       </c>
       <c r="E49" s="3">
         <v>12400</v>
@@ -1786,16 +1897,19 @@
         <v>12400</v>
       </c>
       <c r="I49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J49" s="3">
         <v>12500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,8 +1983,8 @@
       <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1992,8 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E54" s="3">
         <v>30000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,66 +2157,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,13 +2253,16 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2125,22 +2271,25 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E76" s="3">
         <v>26500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,13 +2832,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2859,19 +3080,19 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>15200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SHWZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E8" s="3">
         <v>5400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2100</v>
       </c>
       <c r="F9" s="3">
         <v>2100</v>
       </c>
       <c r="G9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -913,8 +933,8 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1121,72 +1161,78 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
@@ -1194,17 +1240,20 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,191 +1774,209 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1900</v>
       </c>
       <c r="F45" s="3">
         <v>1900</v>
       </c>
       <c r="G45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E46" s="3">
         <v>10000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E47" s="3">
         <v>3900</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3700</v>
       </c>
       <c r="F47" s="3">
         <v>3700</v>
       </c>
       <c r="G47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H47" s="3">
         <v>4500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5300</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +1996,7 @@
         <v>17500</v>
       </c>
       <c r="E49" s="3">
-        <v>12400</v>
+        <v>17500</v>
       </c>
       <c r="F49" s="3">
         <v>12400</v>
@@ -1900,16 +2011,19 @@
         <v>12400</v>
       </c>
       <c r="J49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K49" s="3">
         <v>12500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,13 +2089,16 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -1986,8 +2106,8 @@
       <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -1995,8 +2115,8 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E54" s="3">
         <v>36000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2226,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,72 +2294,81 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>6700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,16 +2399,19 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2274,22 +2420,25 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E76" s="3">
         <v>27500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,17 +3031,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3291,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>15200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SHWZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,193 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F8" s="3">
         <v>7400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F9" s="3">
         <v>4600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
       </c>
       <c r="L10" s="3">
+        <v>400</v>
+      </c>
+      <c r="M10" s="3">
+        <v>700</v>
+      </c>
+      <c r="N10" s="3">
         <v>4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +943,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,31 +961,37 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1043,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F17" s="3">
         <v>11000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2300</v>
       </c>
       <c r="M17" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1142,92 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-8600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1164,96 +1243,114 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1630,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1878,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>15200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,63 +1956,75 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
@@ -1845,164 +2036,194 @@
         <v>400</v>
       </c>
       <c r="M44" s="3">
+        <v>500</v>
+      </c>
+      <c r="N44" s="3">
+        <v>400</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F46" s="3">
         <v>6600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>13000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>15600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>18800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F47" s="3">
         <v>3800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F49" s="3">
         <v>17500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>17500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>12400</v>
       </c>
       <c r="H49" s="3">
         <v>12400</v>
@@ -2014,16 +2235,22 @@
         <v>12400</v>
       </c>
       <c r="K49" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="L49" s="3">
         <v>12400</v>
       </c>
       <c r="M49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="O49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2101,34 +2340,40 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2407,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>70700</v>
+      </c>
+      <c r="F54" s="3">
         <v>32700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>36000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>30000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>32200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>35900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2486,51 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,22 +2538,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2297,86 +2564,104 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>54300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2402,43 +2687,55 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2851,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3073,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-30800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-24200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-17600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3237,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F76" s="3">
         <v>25700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>27500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>26500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>26600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>27900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>13600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,23 +3427,25 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -3067,8 +3464,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3669,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3731,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3850,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +4072,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>15200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +4154,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>10900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>SHWZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,219 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F8" s="3">
         <v>19300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F9" s="3">
         <v>12100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F10" s="3">
         <v>7200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>400</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
+        <v>700</v>
+      </c>
+      <c r="P10" s="3">
         <v>4200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,31 +1007,37 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F17" s="3">
         <v>20800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2300</v>
       </c>
       <c r="O17" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-9300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-6500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1249,108 +1329,126 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F41" s="3">
         <v>23000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,75 +2142,87 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F44" s="3">
         <v>5600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
@@ -2042,194 +2234,224 @@
         <v>400</v>
       </c>
       <c r="O44" s="3">
+        <v>500</v>
+      </c>
+      <c r="P44" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F46" s="3">
         <v>31600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>13000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>15600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>18800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E47" s="3">
         <v>3600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G47" s="3">
         <v>3300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>136400</v>
+      </c>
+      <c r="F49" s="3">
         <v>138100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>56100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>17500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>17500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>12400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>12400</v>
       </c>
       <c r="J49" s="3">
         <v>12400</v>
@@ -2241,16 +2463,22 @@
         <v>12400</v>
       </c>
       <c r="M49" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="N49" s="3">
         <v>12400</v>
       </c>
       <c r="O49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="P49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,40 +2580,46 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>300</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>194700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>183400</v>
+      </c>
+      <c r="F54" s="3">
         <v>181000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>70700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>32700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>36000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>30000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>32200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>35900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>18200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,64 +2748,72 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2555,11 +2823,11 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2570,105 +2838,123 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F59" s="3">
         <v>10600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E60" s="3">
         <v>13100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G60" s="3">
         <v>12400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E61" s="3">
         <v>54300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>54300</v>
+      </c>
+      <c r="G61" s="3">
         <v>13900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2693,49 +2979,61 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F62" s="3">
         <v>4300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>71400</v>
+      </c>
+      <c r="F66" s="3">
         <v>71700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>28900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-46800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-42300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-33700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-30800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-24200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-19400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-17600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>111900</v>
+      </c>
+      <c r="F76" s="3">
         <v>109300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>41800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>25700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>27500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>26500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>26600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>27900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>20700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,29 +3825,31 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
         <v>200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-65600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-30100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>85600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>31900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>15200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F102" s="3">
         <v>21700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-4200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>10900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>SHWZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E8" s="3">
         <v>31800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E9" s="3">
         <v>16800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2100</v>
       </c>
       <c r="K9" s="3">
         <v>2100</v>
       </c>
       <c r="L9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E10" s="3">
         <v>15000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,11 +1032,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1046,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E17" s="3">
         <v>28000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1335,17 +1374,17 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1353,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E41" s="3">
         <v>21200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,281 +2237,299 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E44" s="3">
         <v>10700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1900</v>
       </c>
       <c r="K45" s="3">
         <v>1900</v>
       </c>
       <c r="L45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M45" s="3">
         <v>800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E46" s="3">
         <v>38000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>900</v>
+      </c>
+      <c r="E47" s="3">
         <v>3700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3600</v>
       </c>
       <c r="F47" s="3">
         <v>3600</v>
       </c>
       <c r="G47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H47" s="3">
         <v>3300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3700</v>
       </c>
       <c r="K47" s="3">
         <v>3700</v>
       </c>
       <c r="L47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M47" s="3">
         <v>4500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E48" s="3">
         <v>12400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2430,31 +2537,34 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E49" s="3">
         <v>140200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>136400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>138100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>17500</v>
       </c>
       <c r="I49" s="3">
         <v>17500</v>
       </c>
       <c r="J49" s="3">
-        <v>12400</v>
+        <v>17500</v>
       </c>
       <c r="K49" s="3">
         <v>12400</v>
@@ -2469,16 +2579,19 @@
         <v>12400</v>
       </c>
       <c r="O49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="P49" s="3">
         <v>12500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,13 +2687,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2586,13 +2705,13 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
+        <v>400</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2600,8 +2719,8 @@
       <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
+      <c r="L52" s="3">
+        <v>300</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
@@ -2609,8 +2728,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E54" s="3">
         <v>194700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>183400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>181000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>30000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,17 +2939,17 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2829,8 +2962,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2844,120 +2977,129 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E60" s="3">
         <v>13900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>13100</v>
       </c>
       <c r="F60" s="3">
         <v>13100</v>
       </c>
       <c r="G60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="H60" s="3">
         <v>12400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E61" s="3">
         <v>59200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>54300</v>
       </c>
       <c r="F61" s="3">
         <v>54300</v>
       </c>
       <c r="G61" s="3">
+        <v>54300</v>
+      </c>
+      <c r="H61" s="3">
         <v>13900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2985,31 +3127,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3018,22 +3163,25 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E66" s="3">
         <v>77000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-42300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133600</v>
+      </c>
+      <c r="E76" s="3">
         <v>117700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>111900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>109300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,32 +4024,33 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>3000</v>
       </c>
       <c r="F83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E89" s="3">
         <v>3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,46 +4394,47 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-600</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
       </c>
       <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
         <v>200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E100" s="3">
         <v>5100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>85600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>31900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>15200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>85200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>SHWZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26500</v>
+        <v>44300</v>
       </c>
       <c r="E8" s="3">
         <v>31800</v>
       </c>
       <c r="F8" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="H8" s="3">
         <v>30700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>19300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F9" s="3">
         <v>14400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>16800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>15800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>12100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>7300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F10" s="3">
         <v>12100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>15000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>14900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>700</v>
       </c>
       <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
+        <v>700</v>
+      </c>
+      <c r="S10" s="3">
         <v>4200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1042,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1035,31 +1075,37 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F17" s="3">
         <v>22900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>28000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>26300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>20800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2300</v>
       </c>
       <c r="R17" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F18" s="3">
         <v>3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-8900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F20" s="3">
         <v>11600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F21" s="3">
         <v>16000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>5300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>7600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-9300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-8600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>5000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,126 +1457,144 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="F23" s="3">
         <v>15200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-8800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="E24" s="3">
         <v>1300</v>
       </c>
       <c r="F24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F26" s="3">
         <v>12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-8800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>5000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="F33" s="3">
         <v>5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="F35" s="3">
         <v>5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>47700</v>
+      </c>
+      <c r="F41" s="3">
         <v>106400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>21200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,93 +2420,105 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F44" s="3">
         <v>11100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>10700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>9200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>5600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>400</v>
@@ -2338,239 +2530,269 @@
         <v>400</v>
       </c>
       <c r="R44" s="3">
+        <v>500</v>
+      </c>
+      <c r="S44" s="3">
+        <v>400</v>
+      </c>
+      <c r="T44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>71400</v>
+      </c>
+      <c r="F46" s="3">
         <v>123900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>38000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>35500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>31600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>13000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>15600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>18800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>800</v>
+      </c>
+      <c r="F47" s="3">
         <v>900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F48" s="3">
         <v>18800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>12400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>213400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>219300</v>
+      </c>
+      <c r="F49" s="3">
         <v>140900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>140200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>136400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>138100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>56100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>12400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>12400</v>
       </c>
       <c r="M49" s="3">
         <v>12400</v>
@@ -2582,16 +2804,22 @@
         <v>12400</v>
       </c>
       <c r="P49" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="Q49" s="3">
         <v>12400</v>
       </c>
       <c r="R49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="S49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
+      <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
+        <v>300</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>318100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>318000</v>
+      </c>
+      <c r="F54" s="3">
         <v>285000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>194700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>183400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>181000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>70700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>32700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>36000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>30000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>32200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>35900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>18200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>21000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,82 +3140,90 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2965,11 +3233,11 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2980,132 +3248,150 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>66900</v>
+      </c>
+      <c r="F59" s="3">
         <v>42500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>10700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>70300</v>
+      </c>
+      <c r="F60" s="3">
         <v>45300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>13100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>13100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>12400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>117900</v>
+      </c>
+      <c r="F61" s="3">
         <v>97500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>59200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>54300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>54300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>13900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3130,58 +3416,70 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F62" s="3">
         <v>8700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>202200</v>
+      </c>
+      <c r="F66" s="3">
         <v>151500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>77000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>71400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>71700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>28900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-27800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-46200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-45400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-46800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-42300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-33700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-24200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-22800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-19400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>115800</v>
+      </c>
+      <c r="F76" s="3">
         <v>133600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>117700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>111900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>109300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>41800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>25700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>27500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>26500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>26600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>13600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>20700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="F81" s="3">
         <v>5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,38 +4421,40 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F89" s="3">
         <v>52500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-8500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-65600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-30100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>5200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F100" s="3">
         <v>38200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>5100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>85600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>31900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>15200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="F102" s="3">
         <v>85200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>21700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>10900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>SHWZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E8" s="3">
         <v>44300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E9" s="3">
         <v>19100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2100</v>
       </c>
       <c r="N9" s="3">
         <v>2100</v>
       </c>
       <c r="O9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P9" s="3">
         <v>2800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E10" s="3">
         <v>25200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1081,11 +1101,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1095,8 +1115,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E17" s="3">
         <v>35200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E18" s="3">
         <v>9100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,143 +1346,150 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>29200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E21" s="3">
         <v>41200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1463,17 +1503,17 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>38200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>33800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>32100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-29200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>32100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>32100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,87 +2400,91 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E41" s="3">
         <v>33900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2426,335 +2516,353 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E44" s="3">
         <v>19400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>7700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1900</v>
       </c>
       <c r="N45" s="3">
         <v>1900</v>
       </c>
       <c r="O45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P45" s="3">
         <v>800</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E46" s="3">
         <v>66800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>123900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>800</v>
       </c>
       <c r="F47" s="3">
+        <v>800</v>
+      </c>
+      <c r="G47" s="3">
         <v>900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3600</v>
       </c>
       <c r="I47" s="3">
         <v>3600</v>
       </c>
       <c r="J47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K47" s="3">
         <v>3300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3900</v>
-      </c>
-      <c r="M47" s="3">
-        <v>3700</v>
       </c>
       <c r="N47" s="3">
         <v>3700</v>
       </c>
       <c r="O47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P47" s="3">
         <v>4500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E48" s="3">
         <v>35700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2762,40 +2870,43 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>210700</v>
+      </c>
+      <c r="E49" s="3">
         <v>213400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>219300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>140900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>140200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>136400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>138100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>17500</v>
       </c>
       <c r="L49" s="3">
         <v>17500</v>
       </c>
       <c r="M49" s="3">
-        <v>12400</v>
+        <v>17500</v>
       </c>
       <c r="N49" s="3">
         <v>12400</v>
@@ -2810,16 +2921,19 @@
         <v>12400</v>
       </c>
       <c r="R49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="S49" s="3">
         <v>12500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,22 +3047,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2954,13 +3074,13 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -2968,8 +3088,8 @@
       <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
+      <c r="O52" s="3">
+        <v>300</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
@@ -2977,8 +3097,8 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>329600</v>
+      </c>
+      <c r="E54" s="3">
         <v>318100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>318000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>285000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>194700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>183400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>181000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,72 +3272,76 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3216,17 +3350,17 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3239,8 +3373,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3254,147 +3388,156 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E59" s="3">
         <v>25300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E60" s="3">
         <v>28600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>13100</v>
       </c>
       <c r="I60" s="3">
         <v>13100</v>
       </c>
       <c r="J60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K60" s="3">
         <v>12400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E61" s="3">
         <v>121100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>117900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>97500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>59200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>54300</v>
       </c>
       <c r="I61" s="3">
         <v>54300</v>
       </c>
       <c r="J61" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K61" s="3">
         <v>13900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,40 +3565,43 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E62" s="3">
         <v>11500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -3464,22 +3610,25 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170700</v>
+      </c>
+      <c r="E66" s="3">
         <v>161200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>202200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>151500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>77000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-46800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-42300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158900</v>
+      </c>
+      <c r="E76" s="3">
         <v>157000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>133600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>117700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>111900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>109300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>32100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,41 +4621,42 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3000</v>
       </c>
       <c r="H83" s="3">
         <v>3000</v>
       </c>
       <c r="I83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J83" s="3">
         <v>1800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>52500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,55 +5057,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-600</v>
       </c>
       <c r="I91" s="3">
         <v>-600</v>
       </c>
       <c r="J91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K91" s="3">
         <v>200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
       </c>
       <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-92900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-65600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>28400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>38200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>85600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>31900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>15200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-58700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>85200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>SHWZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,295 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F8" s="3">
         <v>43200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>44300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>31800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>26500</v>
       </c>
       <c r="H8" s="3">
         <v>31800</v>
       </c>
       <c r="I8" s="3">
+        <v>26500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K8" s="3">
         <v>30700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>19300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G9" s="3">
         <v>19100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>20800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>14400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>16800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>15800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F10" s="3">
         <v>26000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>25200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>11000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>12100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>15000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>14900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>700</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>700</v>
       </c>
       <c r="T10" s="3">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
+        <v>700</v>
+      </c>
+      <c r="V10" s="3">
         <v>4200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,25 +1101,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>12700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1104,31 +1143,37 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F17" s="3">
         <v>32100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>35200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>36600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>22900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>28000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>26300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>20800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>10100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2300</v>
       </c>
       <c r="U17" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W17" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F18" s="3">
         <v>11100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>9100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1412,140 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>29200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-20800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>11600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2600</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F21" s="3">
         <v>10200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>41200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-23000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>16000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-9300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-8600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>5000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,11 +1570,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1506,144 +1585,162 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F23" s="3">
         <v>7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>38200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-25500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>15200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-8800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F24" s="3">
         <v>5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2400</v>
       </c>
       <c r="H24" s="3">
         <v>1300</v>
       </c>
       <c r="I24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>33800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-26800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-8800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>32100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-28500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-8800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-29200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>20800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-11600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2600</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>32100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-28500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-8800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>32100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-28500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-8800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,78 +2572,86 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F41" s="3">
         <v>38700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>33900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>47700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>106400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>21200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>21100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>23000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>500</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="E42" s="3">
+        <v>500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2486,11 +2665,11 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2519,111 +2698,123 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F44" s="3">
         <v>21300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>19400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>16400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>11100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>10700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>9200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>500</v>
       </c>
       <c r="R44" s="3">
         <v>400</v>
@@ -2635,284 +2826,314 @@
         <v>400</v>
       </c>
       <c r="U44" s="3">
+        <v>500</v>
+      </c>
+      <c r="V44" s="3">
+        <v>400</v>
+      </c>
+      <c r="W44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>71700</v>
+      </c>
+      <c r="F46" s="3">
         <v>71600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>66800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>71400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>123900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>38000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>35500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>31600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>13000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>15600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>18800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>5300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F48" s="3">
         <v>45600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>35700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>30300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
       </c>
       <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>196900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>202300</v>
+      </c>
+      <c r="F49" s="3">
         <v>210700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>213400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>219300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>140900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>140200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>136400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>138100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>56100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>17500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>17500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>12400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>12400</v>
       </c>
       <c r="P49" s="3">
         <v>12400</v>
@@ -2924,16 +3145,22 @@
         <v>12400</v>
       </c>
       <c r="S49" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="T49" s="3">
         <v>12400</v>
       </c>
       <c r="U49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="V49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="W49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>1500</v>
       </c>
       <c r="G52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
+      <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>300</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>323400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>322900</v>
+      </c>
+      <c r="F54" s="3">
         <v>329600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>318100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>318000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>285000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>194700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>183400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>181000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>70700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>32700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>36000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>30000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>32200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>35900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>21400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>17800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>18200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>21000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,100 +3532,108 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3376,11 +3643,11 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,159 +3658,177 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F59" s="3">
         <v>22700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>25300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>66900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>42500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>10700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F60" s="3">
         <v>30000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>28600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>70300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>45300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>125500</v>
+      </c>
+      <c r="F61" s="3">
         <v>122900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>121100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>117900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>97500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>59200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>54300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>54300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>13900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3568,67 +3853,79 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E62" s="3">
         <v>17800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G62" s="3">
         <v>11500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>14100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>189300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>190700</v>
+      </c>
+      <c r="F66" s="3">
         <v>170700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>161200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>202200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>151500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>77000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>71400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>71700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>28900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-20700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-54600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-27800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-46200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-45400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-46800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-42300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-33700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-24200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-22800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-17600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>132200</v>
+      </c>
+      <c r="F76" s="3">
         <v>158900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>157000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>115800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>133600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>117700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>111900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>109300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>25700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>26500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>26600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>27900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>13600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>15300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>17100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>20700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>32100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-28500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-8800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,47 +5017,49 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F89" s="3">
         <v>4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-13800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>52500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-5300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-92900</v>
-      </c>
       <c r="G94" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-8500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-65600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-30100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>5200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="F100" s="3">
         <v>3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>10000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>28400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>38200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>5100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>85600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>31900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>15200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-13800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-58700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>85200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>21700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>10900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHWZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>SHWZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E8" s="3">
         <v>40000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E9" s="3">
         <v>17000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>17200</v>
       </c>
       <c r="F9" s="3">
         <v>17200</v>
       </c>
       <c r="G9" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H9" s="3">
         <v>19100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2100</v>
       </c>
       <c r="Q9" s="3">
         <v>2100</v>
       </c>
       <c r="R9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S9" s="3">
         <v>2800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E10" s="3">
         <v>23000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,28 +1124,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>12700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1149,11 +1169,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1163,8 +1183,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E17" s="3">
         <v>34400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>47300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-16500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>29200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2600</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E21" s="3">
         <v>12600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21000</v>
       </c>
-      <c r="F21" s="3">
-        <v>10200</v>
-      </c>
       <c r="G21" s="3">
-        <v>41200</v>
+        <v>14200</v>
       </c>
       <c r="H21" s="3">
+        <v>37300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-23000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1576,8 +1616,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1591,17 +1631,17 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>38200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>32100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>16500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-29200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2600</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>32100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>32100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E41" s="3">
         <v>35200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>106400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2653,8 +2743,8 @@
       <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+      <c r="G42" s="3">
+        <v>500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2671,8 +2761,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E44" s="3">
         <v>25600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1900</v>
       </c>
       <c r="Q45" s="3">
         <v>1900</v>
       </c>
       <c r="R45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S45" s="3">
         <v>800</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E46" s="3">
         <v>74100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>71600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>66800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>71400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>123900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2976,117 +3081,120 @@
         <v>2000</v>
       </c>
       <c r="F47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="3">
         <v>300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>800</v>
       </c>
       <c r="H47" s="3">
         <v>800</v>
       </c>
       <c r="I47" s="3">
+        <v>800</v>
+      </c>
+      <c r="J47" s="3">
         <v>900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>3600</v>
       </c>
       <c r="L47" s="3">
         <v>3600</v>
       </c>
       <c r="M47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N47" s="3">
         <v>3300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3900</v>
-      </c>
-      <c r="P47" s="3">
-        <v>3700</v>
       </c>
       <c r="Q47" s="3">
         <v>3700</v>
       </c>
       <c r="R47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S47" s="3">
         <v>4500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E48" s="3">
         <v>49100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>300</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3094,49 +3202,52 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>244900</v>
+      </c>
+      <c r="E49" s="3">
         <v>196900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>202300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>210700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>213400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>219300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>140900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>140200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>136400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>138100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>17500</v>
       </c>
       <c r="O49" s="3">
         <v>17500</v>
       </c>
       <c r="P49" s="3">
-        <v>12400</v>
+        <v>17500</v>
       </c>
       <c r="Q49" s="3">
         <v>12400</v>
@@ -3151,16 +3262,19 @@
         <v>12400</v>
       </c>
       <c r="U49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="V49" s="3">
         <v>12500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,16 +3406,19 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
@@ -3306,14 +3426,14 @@
       <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -3322,13 +3442,13 @@
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -3336,8 +3456,8 @@
       <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
+      <c r="R52" s="3">
+        <v>300</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
@@ -3345,8 +3465,8 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>369000</v>
+      </c>
+      <c r="E54" s="3">
         <v>323400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>322900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>329600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>318100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>318000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>285000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>194700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>183400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>181000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>21000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,90 +3664,94 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3626,17 +3760,17 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3649,8 +3783,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3664,174 +3798,183 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E59" s="3">
         <v>34700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E60" s="3">
         <v>42000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>70300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>45300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>13100</v>
       </c>
       <c r="L60" s="3">
         <v>13100</v>
       </c>
       <c r="M60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="N60" s="3">
         <v>12400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>148900</v>
+      </c>
+      <c r="E61" s="3">
         <v>128200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>125500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>122900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>121100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>117900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>97500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>59200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>54300</v>
       </c>
       <c r="L61" s="3">
         <v>54300</v>
       </c>
       <c r="M61" s="3">
+        <v>54300</v>
+      </c>
+      <c r="N61" s="3">
         <v>13900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3859,49 +4002,52 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E62" s="3">
         <v>19100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>17800</v>
       </c>
       <c r="F62" s="3">
         <v>17800</v>
       </c>
       <c r="G62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H62" s="3">
         <v>11500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -3910,22 +4056,25 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E66" s="3">
         <v>189300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>190700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>170700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>161200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>202200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>151500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>77000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-46200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-46200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-46800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-17600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E76" s="3">
         <v>134100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>132200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>158900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>157000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>117700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>111900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>109300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>32100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,50 +5217,51 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3000</v>
       </c>
       <c r="K83" s="3">
         <v>3000</v>
       </c>
       <c r="L83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M83" s="3">
         <v>1800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>52500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,64 +5719,65 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-4400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-600</v>
       </c>
       <c r="L91" s="3">
         <v>-600</v>
       </c>
       <c r="M91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N91" s="3">
         <v>200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-300</v>
       </c>
       <c r="P91" s="3">
         <v>-300</v>
       </c>
       <c r="Q91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>25900</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G94" s="3">
-        <v>-40600</v>
+        <v>-41200</v>
       </c>
       <c r="H94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-62300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-65600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-30100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5300</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
         <v>-41000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>28400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>38200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>85600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>31900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>15200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-58700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>85200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>
